--- a/biology/Biochimie/Vitesse_initiale_maximale/Vitesse_initiale_maximale.xlsx
+++ b/biology/Biochimie/Vitesse_initiale_maximale/Vitesse_initiale_maximale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitesse initiale maximale fait partie des constantes cinétiques de la réaction enzymatique qu'elles caractérisent. Elle est symbolisée par vi max. La valeur de la vitesse maximale est déterminée en extrapolant à concentration infinie la valeur de la vitesse initiale de la réaction.
 La vitesse initiale maximale vi max (dont l'unité est mol·L–1·s–1 comme toute réaction chimique) est égale au produit de la constante catalytique kcat de l'enzyme par la concentration totale [E]T  d'enzyme : Vmax = kcat · [E]T
